--- a/CORTES DE CAJA/2025/12) DICIEMBRE/LISTA DE LAS VENTAS SEMANA 50 DE DICIEMBRE -25.xlsx
+++ b/CORTES DE CAJA/2025/12) DICIEMBRE/LISTA DE LAS VENTAS SEMANA 50 DE DICIEMBRE -25.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BEB426-5143-4554-859D-7FB4F803770F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FA5C0D-1B92-4E6A-A8B6-2F21263EFF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1245,6 +1245,27 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="7" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1284,26 +1305,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1313,9 +1316,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1909,23 +1909,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
@@ -1938,14 +1938,14 @@
         <f>SUM(Tabla1[Importa])</f>
         <v>2191.5</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
     </row>
     <row r="4" spans="2:18" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
@@ -1976,19 +1976,19 @@
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>24</v>
       </c>
-      <c r="M4" s="36" t="s">
+      <c r="M4" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C5">
         <f>IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
@@ -2007,21 +2007,21 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>50</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
+      <c r="K5" s="25"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C6">
         <f t="shared" ref="C6:C36" si="0">IF(ISNUMBER(E6), IF(ISNUMBER(C5), C5+1, 1), "")</f>
@@ -2040,19 +2040,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>20</v>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -2074,19 +2074,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>31</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -2108,19 +2108,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>43.5</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -2142,19 +2142,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>45</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -2176,19 +2176,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>61.5</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -2210,19 +2210,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>180</v>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -2244,19 +2244,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>150.5</v>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -2278,19 +2278,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>165</v>
       </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -2312,19 +2312,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>41.5</v>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -2346,17 +2346,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>40.5</v>
       </c>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -2378,17 +2378,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>27</v>
       </c>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -2407,17 +2407,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>60</v>
       </c>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -2436,17 +2436,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>10</v>
       </c>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -2465,17 +2465,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>130</v>
       </c>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
@@ -2494,17 +2494,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>35</v>
       </c>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
@@ -2523,17 +2523,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>38</v>
       </c>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
@@ -2555,17 +2555,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>29</v>
       </c>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
@@ -2591,7 +2591,7 @@
     <row r="24" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
@@ -2610,19 +2610,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>170</v>
       </c>
-      <c r="M24" s="32" t="s">
+      <c r="M24" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="32"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
@@ -2641,17 +2641,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>360</v>
       </c>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
@@ -2670,23 +2670,23 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G26))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>120</v>
       </c>
-      <c r="M26" s="31" t="s">
+      <c r="M26" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="N26" s="31"/>
+      <c r="N26" s="38"/>
       <c r="O26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="P26" s="31" t="s">
+      <c r="P26" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
@@ -2705,21 +2705,21 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G27))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>46</v>
       </c>
-      <c r="M27" s="19" t="s">
+      <c r="M27" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="N27" s="20"/>
-      <c r="O27" s="23">
+      <c r="N27" s="27"/>
+      <c r="O27" s="30">
         <v>1060</v>
       </c>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="27"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="34"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
@@ -2738,12 +2738,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G28))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>300</v>
       </c>
-      <c r="M28" s="21"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="30"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="37"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="str">
@@ -2758,16 +2758,16 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G29))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M29" s="19" t="s">
+      <c r="M29" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="N29" s="20"/>
-      <c r="O29" s="23">
+      <c r="N29" s="27"/>
+      <c r="O29" s="30">
         <v>3000</v>
       </c>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="27"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="34"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="str">
@@ -2782,12 +2782,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G30))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M30" s="21"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="30"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="37"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="str">
@@ -2802,12 +2802,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G31))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M31" s="19"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="26"/>
-      <c r="R31" s="27"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="34"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -2822,12 +2822,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G32))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M32" s="21"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="30"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="37"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -2842,12 +2842,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G33))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M33" s="19"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="25"/>
-      <c r="Q33" s="26"/>
-      <c r="R33" s="27"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="33"/>
+      <c r="R33" s="34"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -2862,12 +2862,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G34))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M34" s="21"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="30"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="37"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -2882,12 +2882,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G35))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M35" s="19"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="25"/>
-      <c r="Q35" s="26"/>
-      <c r="R35" s="27"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="32"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="34"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -2902,12 +2902,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G36))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M36" s="21"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="24"/>
-      <c r="P36" s="28"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="30"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="37"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -2922,12 +2922,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G37))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M37" s="19"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="23"/>
-      <c r="P37" s="25"/>
-      <c r="Q37" s="26"/>
-      <c r="R37" s="27"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="34"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -2942,12 +2942,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G38))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M38" s="21"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="24"/>
-      <c r="P38" s="28"/>
-      <c r="Q38" s="29"/>
-      <c r="R38" s="30"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="35"/>
+      <c r="Q38" s="36"/>
+      <c r="R38" s="37"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -2962,12 +2962,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G39))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M39" s="19"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="23"/>
-      <c r="P39" s="25"/>
-      <c r="Q39" s="26"/>
-      <c r="R39" s="27"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="32"/>
+      <c r="Q39" s="33"/>
+      <c r="R39" s="34"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -2982,12 +2982,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G40))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M40" s="21"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="28"/>
-      <c r="Q40" s="29"/>
-      <c r="R40" s="30"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="35"/>
+      <c r="Q40" s="36"/>
+      <c r="R40" s="37"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -3002,12 +3002,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G41))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M41" s="19"/>
-      <c r="N41" s="20"/>
-      <c r="O41" s="23"/>
-      <c r="P41" s="25"/>
-      <c r="Q41" s="26"/>
-      <c r="R41" s="27"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="30"/>
+      <c r="P41" s="32"/>
+      <c r="Q41" s="33"/>
+      <c r="R41" s="34"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -3022,12 +3022,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G42))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M42" s="21"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="24"/>
-      <c r="P42" s="28"/>
-      <c r="Q42" s="29"/>
-      <c r="R42" s="30"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="31"/>
+      <c r="P42" s="35"/>
+      <c r="Q42" s="36"/>
+      <c r="R42" s="37"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -3042,12 +3042,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G43))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M43" s="19"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="23"/>
-      <c r="P43" s="25"/>
-      <c r="Q43" s="26"/>
-      <c r="R43" s="27"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="30"/>
+      <c r="P43" s="32"/>
+      <c r="Q43" s="33"/>
+      <c r="R43" s="34"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -3062,12 +3062,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G44))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M44" s="21"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="24"/>
-      <c r="P44" s="28"/>
-      <c r="Q44" s="29"/>
-      <c r="R44" s="30"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="31"/>
+      <c r="P44" s="35"/>
+      <c r="Q44" s="36"/>
+      <c r="R44" s="37"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -3082,12 +3082,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G45))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M45" s="19"/>
-      <c r="N45" s="20"/>
-      <c r="O45" s="23"/>
-      <c r="P45" s="25"/>
-      <c r="Q45" s="26"/>
-      <c r="R45" s="27"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="27"/>
+      <c r="O45" s="30"/>
+      <c r="P45" s="32"/>
+      <c r="Q45" s="33"/>
+      <c r="R45" s="34"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B46" s="18" t="str">
@@ -3102,12 +3102,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G46))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M46" s="21"/>
-      <c r="N46" s="22"/>
-      <c r="O46" s="24"/>
-      <c r="P46" s="28"/>
-      <c r="Q46" s="29"/>
-      <c r="R46" s="30"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="31"/>
+      <c r="P46" s="35"/>
+      <c r="Q46" s="36"/>
+      <c r="R46" s="37"/>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="str">
@@ -3122,12 +3122,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G47))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M47" s="19"/>
-      <c r="N47" s="20"/>
-      <c r="O47" s="23"/>
-      <c r="P47" s="25"/>
-      <c r="Q47" s="26"/>
-      <c r="R47" s="27"/>
+      <c r="M47" s="26"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="30"/>
+      <c r="P47" s="32"/>
+      <c r="Q47" s="33"/>
+      <c r="R47" s="34"/>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B48" s="18" t="str">
@@ -3142,12 +3142,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G48))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M48" s="21"/>
-      <c r="N48" s="22"/>
-      <c r="O48" s="24"/>
-      <c r="P48" s="28"/>
-      <c r="Q48" s="29"/>
-      <c r="R48" s="30"/>
+      <c r="M48" s="28"/>
+      <c r="N48" s="29"/>
+      <c r="O48" s="31"/>
+      <c r="P48" s="35"/>
+      <c r="Q48" s="36"/>
+      <c r="R48" s="37"/>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B49" s="18" t="str">
@@ -3162,12 +3162,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G49))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M49" s="19"/>
-      <c r="N49" s="20"/>
-      <c r="O49" s="23"/>
-      <c r="P49" s="25"/>
-      <c r="Q49" s="26"/>
-      <c r="R49" s="27"/>
+      <c r="M49" s="26"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="30"/>
+      <c r="P49" s="32"/>
+      <c r="Q49" s="33"/>
+      <c r="R49" s="34"/>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B50" s="18" t="str">
@@ -3182,12 +3182,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G50))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M50" s="21"/>
-      <c r="N50" s="22"/>
-      <c r="O50" s="24"/>
-      <c r="P50" s="28"/>
-      <c r="Q50" s="29"/>
-      <c r="R50" s="30"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="29"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="35"/>
+      <c r="Q50" s="36"/>
+      <c r="R50" s="37"/>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B51" s="18" t="str">
@@ -3202,12 +3202,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G51))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M51" s="19"/>
-      <c r="N51" s="20"/>
-      <c r="O51" s="23"/>
-      <c r="P51" s="25"/>
-      <c r="Q51" s="26"/>
-      <c r="R51" s="27"/>
+      <c r="M51" s="26"/>
+      <c r="N51" s="27"/>
+      <c r="O51" s="30"/>
+      <c r="P51" s="32"/>
+      <c r="Q51" s="33"/>
+      <c r="R51" s="34"/>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B52" s="18" t="str">
@@ -3222,12 +3222,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G52))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M52" s="21"/>
-      <c r="N52" s="22"/>
-      <c r="O52" s="24"/>
-      <c r="P52" s="28"/>
-      <c r="Q52" s="29"/>
-      <c r="R52" s="30"/>
+      <c r="M52" s="28"/>
+      <c r="N52" s="29"/>
+      <c r="O52" s="31"/>
+      <c r="P52" s="35"/>
+      <c r="Q52" s="36"/>
+      <c r="R52" s="37"/>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B53" s="18" t="str">
@@ -3946,19 +3946,33 @@
   </sheetData>
   <autoFilter ref="B4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="48">
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="J5:K14"/>
-    <mergeCell ref="M41:N42"/>
-    <mergeCell ref="M43:N44"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="P41:R42"/>
-    <mergeCell ref="P43:R44"/>
+    <mergeCell ref="M49:N50"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="P49:R50"/>
+    <mergeCell ref="M51:N52"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="P51:R52"/>
+    <mergeCell ref="M45:N46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="P45:R46"/>
+    <mergeCell ref="M47:N48"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="P47:R48"/>
+    <mergeCell ref="P31:R32"/>
+    <mergeCell ref="P33:R34"/>
+    <mergeCell ref="P35:R36"/>
+    <mergeCell ref="P37:R38"/>
+    <mergeCell ref="P39:R40"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="M31:N32"/>
+    <mergeCell ref="M33:N34"/>
+    <mergeCell ref="M35:N36"/>
+    <mergeCell ref="M37:N38"/>
+    <mergeCell ref="M39:N40"/>
     <mergeCell ref="P26:R26"/>
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="M27:N28"/>
@@ -3967,33 +3981,19 @@
     <mergeCell ref="O29:O30"/>
     <mergeCell ref="P27:R28"/>
     <mergeCell ref="P29:R30"/>
-    <mergeCell ref="M31:N32"/>
-    <mergeCell ref="M33:N34"/>
-    <mergeCell ref="M35:N36"/>
-    <mergeCell ref="M37:N38"/>
-    <mergeCell ref="M39:N40"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="P31:R32"/>
-    <mergeCell ref="P33:R34"/>
-    <mergeCell ref="P35:R36"/>
-    <mergeCell ref="P37:R38"/>
-    <mergeCell ref="P39:R40"/>
-    <mergeCell ref="M45:N46"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="P45:R46"/>
-    <mergeCell ref="M47:N48"/>
-    <mergeCell ref="O47:O48"/>
-    <mergeCell ref="P47:R48"/>
-    <mergeCell ref="M49:N50"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="P49:R50"/>
-    <mergeCell ref="M51:N52"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="P51:R52"/>
+    <mergeCell ref="M41:N42"/>
+    <mergeCell ref="M43:N44"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="P41:R42"/>
+    <mergeCell ref="P43:R44"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
     <cfRule type="expression" dxfId="13" priority="1">
@@ -4038,23 +4038,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
@@ -4067,14 +4067,14 @@
         <f>SUM(Tabla110[Importa])</f>
         <v>850</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
@@ -4105,19 +4105,19 @@
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>17</v>
       </c>
-      <c r="M4" s="36" t="s">
+      <c r="M4" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla110[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C68" si="0">IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
@@ -4136,21 +4136,21 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>45</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
+      <c r="K5" s="25"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -4172,19 +4172,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>38</v>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -4203,19 +4203,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>20</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -4234,19 +4234,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>10</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -4265,19 +4265,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>20</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -4299,19 +4299,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>319.5</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -4333,19 +4333,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>49.5</v>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -4364,19 +4364,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>54</v>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -4395,19 +4395,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>20</v>
       </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -4426,19 +4426,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>5</v>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -4457,17 +4457,17 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>68</v>
       </c>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -4489,17 +4489,17 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>81</v>
       </c>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -4521,17 +4521,17 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>13.5</v>
       </c>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -4553,17 +4553,17 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>27</v>
       </c>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -4585,17 +4585,17 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>27</v>
       </c>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
@@ -4617,17 +4617,17 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>32.5</v>
       </c>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
@@ -4646,17 +4646,17 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>20</v>
       </c>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
@@ -4666,17 +4666,17 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
@@ -4690,7 +4690,7 @@
     <row r="24" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
@@ -4700,19 +4700,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M24" s="32" t="s">
+      <c r="M24" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -4722,17 +4722,17 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
@@ -4748,17 +4748,17 @@
       <c r="N26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="31" t="s">
+      <c r="O26" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
     </row>
     <row r="27" spans="2:18" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
@@ -4774,15 +4774,15 @@
       <c r="N27" s="15">
         <v>4006</v>
       </c>
-      <c r="O27" s="39"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="41"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="42"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
@@ -4794,10 +4794,10 @@
       </c>
       <c r="M28" s="13"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="41"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="42"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="str">
@@ -4814,10 +4814,10 @@
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="41"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="42"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="str">
@@ -4834,10 +4834,10 @@
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="41"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="42"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="str">
@@ -4854,10 +4854,10 @@
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="41"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="42"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -4874,10 +4874,10 @@
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="41"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="42"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -4894,10 +4894,10 @@
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="41"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="42"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -4914,10 +4914,10 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="41"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="42"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -4934,10 +4934,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="41"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="42"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -4954,10 +4954,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="41"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="42"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -4974,10 +4974,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="41"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="42"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -4994,10 +4994,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="41"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="42"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -5014,10 +5014,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="41"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="42"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -5034,10 +5034,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="41"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="42"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -5054,10 +5054,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="41"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="42"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -5074,10 +5074,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="41"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="42"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -5094,10 +5094,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="41"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="42"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -5114,10 +5114,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="39"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="41"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="42"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -5947,32 +5947,32 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
     <cfRule type="expression" dxfId="11" priority="1">
@@ -6016,23 +6016,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
@@ -6045,14 +6045,14 @@
         <f>SUM(Tabla111[Importa])</f>
         <v>2312.5</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
@@ -6083,19 +6083,19 @@
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>23</v>
       </c>
-      <c r="M4" s="36" t="s">
+      <c r="M4" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla111[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C5">
         <f>IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
@@ -6114,21 +6114,21 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>40</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
+      <c r="K5" s="25"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C6">
         <f t="shared" ref="C6" si="0">IF(ISNUMBER(E6), IF(ISNUMBER(C5), C5+1, 1), "")</f>
@@ -6147,19 +6147,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>10</v>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C7">
         <f>IF(ISNUMBER(E7), IF(ISNUMBER(C6), C6+1, 1), "")</f>
@@ -6181,19 +6181,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>108</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C8">
         <f t="shared" ref="C8:C68" si="1">IF(ISNUMBER(E8), IF(ISNUMBER(C7), C7+1, 1), "")</f>
@@ -6215,19 +6215,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>13.5</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
@@ -6249,19 +6249,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>64</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
@@ -6283,19 +6283,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>51.5</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
@@ -6317,19 +6317,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>51.5</v>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
@@ -6351,19 +6351,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>27</v>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
@@ -6385,19 +6385,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>70.5</v>
       </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
@@ -6419,19 +6419,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>27</v>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
@@ -6450,17 +6450,17 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>350</v>
       </c>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
@@ -6479,17 +6479,17 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>68</v>
       </c>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
@@ -6508,17 +6508,17 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>20</v>
       </c>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
@@ -6537,17 +6537,17 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>102</v>
       </c>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
@@ -6569,17 +6569,17 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>153</v>
       </c>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
@@ -6598,17 +6598,17 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>142</v>
       </c>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
@@ -6630,17 +6630,17 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>31.5</v>
       </c>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
@@ -6659,17 +6659,17 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>120</v>
       </c>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
@@ -6692,7 +6692,7 @@
     <row r="24" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
@@ -6714,19 +6714,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>117</v>
       </c>
-      <c r="M24" s="32" t="s">
+      <c r="M24" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
@@ -6748,17 +6748,17 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>103</v>
       </c>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
@@ -6786,17 +6786,17 @@
       <c r="N26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="31" t="s">
+      <c r="O26" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
     </row>
     <row r="27" spans="2:18" ht="45" x14ac:dyDescent="0.25">
       <c r="B27" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
@@ -6824,15 +6824,15 @@
       <c r="N27" s="15">
         <v>1550</v>
       </c>
-      <c r="O27" s="39"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="41"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="42"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="1"/>
@@ -6844,10 +6844,10 @@
       </c>
       <c r="M28" s="13"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="41"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="42"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="str">
@@ -6864,10 +6864,10 @@
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="41"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="42"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="str">
@@ -6884,10 +6884,10 @@
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="41"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="42"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="str">
@@ -6904,10 +6904,10 @@
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="41"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="42"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -6924,10 +6924,10 @@
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="41"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="42"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -6944,10 +6944,10 @@
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="41"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="42"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -6964,10 +6964,10 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="41"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="42"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -6984,10 +6984,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="41"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="42"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -7004,10 +7004,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="41"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="42"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -7024,10 +7024,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="41"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="42"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -7044,10 +7044,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="41"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="42"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -7064,10 +7064,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="41"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="42"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -7084,10 +7084,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="41"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="42"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -7104,10 +7104,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="41"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="42"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -7124,10 +7124,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="41"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="42"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -7144,10 +7144,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="41"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="42"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -7164,10 +7164,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="39"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="41"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="42"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -7997,32 +7997,32 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
     <cfRule type="expression" dxfId="9" priority="1">
@@ -8066,23 +8066,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
@@ -8095,14 +8095,14 @@
         <f>SUM(Tabla112[Importa])</f>
         <v>2225.5</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
@@ -8133,19 +8133,19 @@
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>18</v>
       </c>
-      <c r="M4" s="36" t="s">
+      <c r="M4" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla112[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C68" si="0">IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
@@ -8164,21 +8164,21 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>30</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
+      <c r="K5" s="25"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -8197,19 +8197,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>30</v>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -8228,19 +8228,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>32</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -8259,19 +8259,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>280</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -8290,19 +8290,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>280</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -8321,19 +8321,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>142</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -8352,19 +8352,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>36</v>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -8383,19 +8383,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>35</v>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -8414,19 +8414,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>20</v>
       </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -8445,19 +8445,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>20</v>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -8476,17 +8476,17 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>750</v>
       </c>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -8508,17 +8508,17 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>234</v>
       </c>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -8540,17 +8540,17 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>103</v>
       </c>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -8572,17 +8572,17 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>51.5</v>
       </c>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -8604,17 +8604,17 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>63</v>
       </c>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
@@ -8636,17 +8636,17 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>54</v>
       </c>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
@@ -8668,17 +8668,17 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>51.5</v>
       </c>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
@@ -8700,17 +8700,17 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>13.5</v>
       </c>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
@@ -8724,7 +8724,7 @@
     <row r="24" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
@@ -8734,19 +8734,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M24" s="32" t="s">
+      <c r="M24" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
     </row>
     <row r="25" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -8756,17 +8756,17 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
@@ -8782,17 +8782,17 @@
       <c r="N26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="31" t="s">
+      <c r="O26" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
     </row>
     <row r="27" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
@@ -8808,15 +8808,15 @@
       <c r="N27" s="15">
         <v>2411</v>
       </c>
-      <c r="O27" s="39"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="41"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="42"/>
     </row>
     <row r="28" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
@@ -8828,10 +8828,10 @@
       </c>
       <c r="M28" s="13"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="41"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="42"/>
     </row>
     <row r="29" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="str">
@@ -8848,10 +8848,10 @@
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="41"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="42"/>
     </row>
     <row r="30" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="str">
@@ -8868,10 +8868,10 @@
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="41"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="42"/>
     </row>
     <row r="31" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="str">
@@ -8888,10 +8888,10 @@
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="41"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="42"/>
     </row>
     <row r="32" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -8908,10 +8908,10 @@
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="41"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="42"/>
     </row>
     <row r="33" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -8928,10 +8928,10 @@
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="41"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="42"/>
     </row>
     <row r="34" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -8948,10 +8948,10 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="41"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="42"/>
     </row>
     <row r="35" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -8968,10 +8968,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="41"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="42"/>
     </row>
     <row r="36" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -8988,10 +8988,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="41"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="42"/>
     </row>
     <row r="37" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -9008,10 +9008,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="41"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="42"/>
     </row>
     <row r="38" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -9028,10 +9028,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="41"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="42"/>
     </row>
     <row r="39" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -9048,10 +9048,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="41"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="42"/>
     </row>
     <row r="40" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -9068,10 +9068,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="41"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="42"/>
     </row>
     <row r="41" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -9088,10 +9088,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="41"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="42"/>
     </row>
     <row r="42" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -9108,10 +9108,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="41"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="42"/>
     </row>
     <row r="43" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -9128,10 +9128,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="41"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="42"/>
     </row>
     <row r="44" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -9148,10 +9148,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="39"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="41"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="42"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -9981,32 +9981,32 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
     <cfRule type="expression" dxfId="7" priority="1">
@@ -10050,23 +10050,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
@@ -10079,14 +10079,14 @@
         <f>SUM(Tabla113[Importa])</f>
         <v>1091.5</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
@@ -10117,19 +10117,19 @@
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>12</v>
       </c>
-      <c r="M4" s="36" t="s">
+      <c r="M4" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla113[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C68" si="0">IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
@@ -10148,21 +10148,21 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>20</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
+      <c r="K5" s="25"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -10181,19 +10181,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>10</v>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -10212,19 +10212,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>44</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -10246,19 +10246,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>164</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -10280,19 +10280,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>103</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -10311,19 +10311,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>20</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -10345,19 +10345,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>445.5</v>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -10379,19 +10379,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>121.5</v>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -10410,19 +10410,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>40</v>
       </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -10444,19 +10444,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>40.5</v>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -10475,17 +10475,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>38</v>
       </c>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -10504,17 +10504,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>45</v>
       </c>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -10524,17 +10524,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
@@ -10544,17 +10544,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -10564,17 +10564,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
@@ -10584,17 +10584,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
@@ -10604,17 +10604,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
@@ -10624,17 +10624,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
@@ -10648,7 +10648,7 @@
     <row r="24" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
@@ -10658,19 +10658,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M24" s="32" t="s">
+      <c r="M24" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
     </row>
     <row r="25" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -10680,17 +10680,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
@@ -10706,17 +10706,17 @@
       <c r="N26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="31" t="s">
+      <c r="O26" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
     </row>
     <row r="27" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
@@ -10732,17 +10732,17 @@
       <c r="N27" s="15">
         <v>1060</v>
       </c>
-      <c r="O27" s="39" t="s">
+      <c r="O27" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="41"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="42"/>
     </row>
     <row r="28" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
@@ -10758,12 +10758,12 @@
       <c r="N28" s="15">
         <v>3000</v>
       </c>
-      <c r="O28" s="39" t="s">
+      <c r="O28" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="41"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="42"/>
     </row>
     <row r="29" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="str">
@@ -10784,12 +10784,12 @@
       <c r="N29" s="15">
         <v>4006</v>
       </c>
-      <c r="O29" s="39" t="s">
+      <c r="O29" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="41"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="42"/>
     </row>
     <row r="30" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="str">
@@ -10810,12 +10810,12 @@
       <c r="N30" s="15">
         <v>1550</v>
       </c>
-      <c r="O30" s="39" t="s">
+      <c r="O30" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="41"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="42"/>
     </row>
     <row r="31" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="str">
@@ -10836,12 +10836,12 @@
       <c r="N31" s="15">
         <v>2411</v>
       </c>
-      <c r="O31" s="39" t="s">
+      <c r="O31" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="41"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="42"/>
     </row>
     <row r="32" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -10862,12 +10862,12 @@
       <c r="N32" s="15">
         <v>25778</v>
       </c>
-      <c r="O32" s="39" t="s">
+      <c r="O32" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="41"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="42"/>
     </row>
     <row r="33" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -10888,12 +10888,12 @@
       <c r="N33" s="15">
         <v>2740</v>
       </c>
-      <c r="O33" s="39" t="s">
+      <c r="O33" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="41"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="42"/>
     </row>
     <row r="34" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -10914,12 +10914,12 @@
       <c r="N34" s="15">
         <v>1500</v>
       </c>
-      <c r="O34" s="39" t="s">
+      <c r="O34" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="41"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="42"/>
     </row>
     <row r="35" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -10940,12 +10940,12 @@
       <c r="N35" s="15">
         <v>42045</v>
       </c>
-      <c r="O35" s="39" t="s">
+      <c r="O35" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="41"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="42"/>
     </row>
     <row r="36" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -10962,10 +10962,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="41"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="42"/>
     </row>
     <row r="37" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -10982,10 +10982,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="41"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="42"/>
     </row>
     <row r="38" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -11002,10 +11002,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="41"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="42"/>
     </row>
     <row r="39" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -11022,10 +11022,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="41"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="42"/>
     </row>
     <row r="40" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -11042,10 +11042,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="41"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="42"/>
     </row>
     <row r="41" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -11062,10 +11062,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="41"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="42"/>
     </row>
     <row r="42" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -11082,10 +11082,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="41"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="42"/>
     </row>
     <row r="43" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -11102,10 +11102,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="41"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="42"/>
     </row>
     <row r="44" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -11122,10 +11122,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="39"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="41"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="42"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -11955,32 +11955,32 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
     <cfRule type="expression" dxfId="5" priority="1">
@@ -12024,23 +12024,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
@@ -12053,14 +12053,14 @@
         <f>SUM(Tabla114[Importa])</f>
         <v>2612</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
@@ -12091,19 +12091,19 @@
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>18</v>
       </c>
-      <c r="M4" s="36" t="s">
+      <c r="M4" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla114[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C68" si="0">IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
@@ -12122,21 +12122,21 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>20</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
+      <c r="K5" s="25"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -12155,19 +12155,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>15</v>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -12189,19 +12189,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>882</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -12223,19 +12223,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>205.5</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -12254,19 +12254,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>355</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -12285,19 +12285,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>185</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -12319,19 +12319,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>190</v>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -12353,19 +12353,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>63</v>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -12387,19 +12387,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>51.5</v>
       </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -12421,19 +12421,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>63</v>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -12452,17 +12452,17 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>123</v>
       </c>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -12481,17 +12481,17 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>15</v>
       </c>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -12510,17 +12510,17 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>95</v>
       </c>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -12539,17 +12539,17 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>64</v>
       </c>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -12571,17 +12571,17 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>117</v>
       </c>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
@@ -12603,17 +12603,17 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>81</v>
       </c>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
@@ -12632,17 +12632,17 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>35</v>
       </c>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
@@ -12661,17 +12661,17 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>52</v>
       </c>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
@@ -12685,7 +12685,7 @@
     <row r="24" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
@@ -12695,19 +12695,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M24" s="32" t="s">
+      <c r="M24" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
     </row>
     <row r="25" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -12717,17 +12717,17 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
@@ -12743,17 +12743,17 @@
       <c r="N26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="31" t="s">
+      <c r="O26" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
     </row>
     <row r="27" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
@@ -12765,15 +12765,15 @@
       </c>
       <c r="M27" s="13"/>
       <c r="N27" s="15"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="41"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="42"/>
     </row>
     <row r="28" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
@@ -12785,10 +12785,10 @@
       </c>
       <c r="M28" s="13"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="41"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="42"/>
     </row>
     <row r="29" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="str">
@@ -12805,10 +12805,10 @@
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="41"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="42"/>
     </row>
     <row r="30" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="str">
@@ -12825,10 +12825,10 @@
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="41"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="42"/>
     </row>
     <row r="31" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="str">
@@ -12845,10 +12845,10 @@
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="41"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="42"/>
     </row>
     <row r="32" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -12865,10 +12865,10 @@
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="41"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="42"/>
     </row>
     <row r="33" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -12885,10 +12885,10 @@
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="41"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="42"/>
     </row>
     <row r="34" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -12905,10 +12905,10 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="41"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="42"/>
     </row>
     <row r="35" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -12925,10 +12925,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="41"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="42"/>
     </row>
     <row r="36" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -12945,10 +12945,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="41"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="42"/>
     </row>
     <row r="37" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -12965,10 +12965,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="41"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="42"/>
     </row>
     <row r="38" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -12985,10 +12985,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="41"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="42"/>
     </row>
     <row r="39" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -13005,10 +13005,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="41"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="42"/>
     </row>
     <row r="40" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -13025,10 +13025,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="41"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="42"/>
     </row>
     <row r="41" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -13045,10 +13045,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="41"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="42"/>
     </row>
     <row r="42" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -13065,10 +13065,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="41"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="42"/>
     </row>
     <row r="43" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -13085,10 +13085,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="41"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="42"/>
     </row>
     <row r="44" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -13105,10 +13105,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="39"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="41"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="42"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -13938,32 +13938,32 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
     <cfRule type="expression" dxfId="3" priority="1">
@@ -14006,23 +14006,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
@@ -14035,14 +14035,14 @@
         <f>SUM(Tabla115[Importa])</f>
         <v>0</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
@@ -14073,12 +14073,12 @@
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="str">
@@ -14093,21 +14093,21 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
+      <c r="K5" s="25"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -14117,19 +14117,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -14139,19 +14139,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -14161,19 +14161,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -14183,19 +14183,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -14205,19 +14205,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -14227,19 +14227,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -14249,19 +14249,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -14271,19 +14271,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -14293,19 +14293,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -14315,17 +14315,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -14335,17 +14335,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -14355,17 +14355,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
@@ -14375,17 +14375,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -14395,17 +14395,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
@@ -14415,17 +14415,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
@@ -14435,17 +14435,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
@@ -14455,17 +14455,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
@@ -14479,7 +14479,7 @@
     <row r="24" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
@@ -14489,19 +14489,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M24" s="32" t="s">
+      <c r="M24" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
     </row>
     <row r="25" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -14511,17 +14511,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
@@ -14537,17 +14537,17 @@
       <c r="N26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="31" t="s">
+      <c r="O26" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
     </row>
     <row r="27" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
@@ -14559,15 +14559,15 @@
       </c>
       <c r="M27" s="13"/>
       <c r="N27" s="15"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="41"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="42"/>
     </row>
     <row r="28" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46011.785384259259</v>
+        <v>46021.387159953701</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
@@ -14579,10 +14579,10 @@
       </c>
       <c r="M28" s="13"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="41"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="42"/>
     </row>
     <row r="29" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="str">
@@ -14599,10 +14599,10 @@
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="41"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="42"/>
     </row>
     <row r="30" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="str">
@@ -14619,10 +14619,10 @@
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="41"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="42"/>
     </row>
     <row r="31" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="str">
@@ -14639,10 +14639,10 @@
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="41"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="42"/>
     </row>
     <row r="32" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -14659,10 +14659,10 @@
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="41"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="42"/>
     </row>
     <row r="33" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -14679,10 +14679,10 @@
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="41"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="42"/>
     </row>
     <row r="34" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -14699,10 +14699,10 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="41"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="42"/>
     </row>
     <row r="35" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -14719,10 +14719,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="41"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="42"/>
     </row>
     <row r="36" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -14739,10 +14739,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="41"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="42"/>
     </row>
     <row r="37" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -14759,10 +14759,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="41"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="42"/>
     </row>
     <row r="38" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -14779,10 +14779,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="41"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="42"/>
     </row>
     <row r="39" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -14799,10 +14799,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="41"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="42"/>
     </row>
     <row r="40" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -14819,10 +14819,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="41"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="42"/>
     </row>
     <row r="41" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -14839,10 +14839,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="41"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="42"/>
     </row>
     <row r="42" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -14859,10 +14859,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="41"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="42"/>
     </row>
     <row r="43" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -14879,10 +14879,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="41"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="42"/>
     </row>
     <row r="44" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -14899,10 +14899,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="39"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="41"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="42"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -15732,32 +15732,32 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
     <cfRule type="expression" dxfId="1" priority="1">
